--- a/doc/Bericht/05_Technischer Bericht/06_Entwurf/NutzwertanalysePDFDarstellung.xlsx
+++ b/doc/Bericht/05_Technischer Bericht/06_Entwurf/NutzwertanalysePDFDarstellung.xlsx
@@ -527,7 +527,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -703,7 +703,9 @@
       <c r="C8" s="11">
         <v>1</v>
       </c>
-      <c r="D8" s="12"/>
+      <c r="D8" s="12">
+        <v>5</v>
+      </c>
       <c r="E8" s="11">
         <v>3</v>
       </c>
@@ -714,7 +716,7 @@
         <v>5</v>
       </c>
       <c r="H8" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -725,7 +727,7 @@
       <c r="C9" s="13"/>
       <c r="D9" s="14">
         <f>SUM(D5:D8)</f>
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="14">
@@ -735,7 +737,7 @@
       <c r="G9" s="13"/>
       <c r="H9" s="14">
         <f>SUM(H5:H8)</f>
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">

--- a/doc/Bericht/05_Technischer Bericht/06_Entwurf/NutzwertanalysePDFDarstellung.xlsx
+++ b/doc/Bericht/05_Technischer Bericht/06_Entwurf/NutzwertanalysePDFDarstellung.xlsx
@@ -34,9 +34,6 @@
     <t>Total Punkte</t>
   </si>
   <si>
-    <t>Bemerkung: Die Gewichtungs- / Bewertungsskala geht von wenig (1), mittel (3) bis zu sehr wichtig (5).</t>
-  </si>
-  <si>
     <t>Nutzwertanalyse: PDF Darstellung</t>
   </si>
   <si>
@@ -71,6 +68,9 @@
   </si>
   <si>
     <t>Durch die Nutzwertanalyse geht das "Variante 3: Umwandlung zu Bild" als Sieger hervor.</t>
+  </si>
+  <si>
+    <t>Bemerkung: Die Gewichtungs- / Bewertungsskala geht von wenig (1), bedingt (3) bis zu sehr wichtig (5).</t>
   </si>
 </sst>
 </file>
@@ -527,7 +527,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="A13" sqref="A13:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,7 +538,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -552,15 +552,15 @@
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" s="18"/>
       <c r="E2" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" s="18"/>
       <c r="G2" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H2" s="18"/>
     </row>
@@ -568,15 +568,15 @@
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="20"/>
       <c r="E3" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" s="20"/>
       <c r="G3" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H3" s="20"/>
     </row>
@@ -608,7 +608,7 @@
     </row>
     <row r="5" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="8">
         <v>3</v>
@@ -637,7 +637,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="8">
         <v>3</v>
@@ -666,7 +666,7 @@
     </row>
     <row r="7" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="8">
         <v>5</v>
@@ -695,7 +695,7 @@
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="8">
         <v>5</v>
@@ -764,7 +764,7 @@
     <row r="11" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -776,7 +776,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
